--- a/tests/artifact/script/CreateSupplier.xlsx
+++ b/tests/artifact/script/CreateSupplier.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="956">
   <si>
     <t>target</t>
   </si>
@@ -2316,57 +2316,63 @@
 password=${password}</t>
   </si>
   <si>
+    <t>Navigate to Contacts page</t>
+  </si>
+  <si>
+    <t>Add the OrgName in Org Locator</t>
+  </si>
+  <si>
+    <t>${Org.locator}</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>${Org.Name}</t>
+  </si>
+  <si>
+    <t>NeworgLoc</t>
+  </si>
+  <si>
+    <t>click on open organization button</t>
+  </si>
+  <si>
+    <t>${NeworgLoc}</t>
+  </si>
+  <si>
+    <t>Wait for a second</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>click on Hamburger menu to open the menu</t>
+  </si>
+  <si>
+    <t>${org.hamburger}</t>
+  </si>
+  <si>
+    <t>click on workflow</t>
+  </si>
+  <si>
+    <t>${org.workflow}</t>
+  </si>
+  <si>
+    <t>Click on Contacts</t>
+  </si>
+  <si>
+    <t>${click.Contact}</t>
+  </si>
+  <si>
+    <t>Verify Navigated to contacts page</t>
+  </si>
+  <si>
+    <t>${Contacts.page}</t>
+  </si>
+  <si>
     <t>Create Supplier</t>
   </si>
   <si>
-    <t>Add the OrgName in Org Locator</t>
-  </si>
-  <si>
-    <t>${Org.locator}</t>
-  </si>
-  <si>
-    <t>\s</t>
-  </si>
-  <si>
-    <t>${Org.Name}</t>
-  </si>
-  <si>
-    <t>NeworgLoc</t>
-  </si>
-  <si>
-    <t>click on open organization button</t>
-  </si>
-  <si>
-    <t>${NeworgLoc}</t>
-  </si>
-  <si>
-    <t>Wait for a second</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>click on Hamburger menu to open the menu</t>
-  </si>
-  <si>
-    <t>${org.hamburger}</t>
-  </si>
-  <si>
-    <t>click on workflow</t>
-  </si>
-  <si>
-    <t>${org.workflow}</t>
-  </si>
-  <si>
-    <t>Click on Contacts</t>
-  </si>
-  <si>
-    <t>${click.Contact}</t>
-  </si>
-  <si>
-    <t>Contact person Details</t>
-  </si>
-  <si>
     <t>click on add button in Contact page</t>
   </si>
   <si>
@@ -2508,7 +2514,7 @@
     <t>${popup.success.supplier}</t>
   </si>
   <si>
-    <t>Select the supplier filter</t>
+    <t>Navigate to Contacts list page</t>
   </si>
   <si>
     <t>Go Back</t>
@@ -9878,12 +9884,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10017,7 +10023,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="15.5" spans="1:15">
+    <row r="5" s="4" customFormat="1" ht="28" spans="1:15">
       <c r="A5" s="40" t="s">
         <v>750</v>
       </c>
@@ -10176,20 +10182,18 @@
       <c r="O10" s="42"/>
     </row>
     <row r="11" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="22" t="s">
         <v>766</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>714</v>
+        <v>253</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -10202,22 +10206,23 @@
       <c r="N11" s="54"/>
       <c r="O11" s="42"/>
     </row>
-    <row r="12" customFormat="1" ht="29" customHeight="1" spans="2:15">
+    <row r="12" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>768</v>
+      </c>
       <c r="B12" s="22" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>576</v>
+        <v>714</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="F12" s="29" t="s">
         <v>759</v>
       </c>
+      <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -10230,18 +10235,20 @@
     </row>
     <row r="13" customFormat="1" ht="29" customHeight="1" spans="2:15">
       <c r="B13" s="22" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>714</v>
+        <v>576</v>
       </c>
       <c r="E13" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>759</v>
       </c>
-      <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -10252,46 +10259,45 @@
       <c r="N13" s="54"/>
       <c r="O13" s="42"/>
     </row>
-    <row r="14" s="4" customFormat="1" spans="2:15">
-      <c r="B14" s="27" t="s">
-        <v>769</v>
+    <row r="14" customFormat="1" ht="29" customHeight="1" spans="2:15">
+      <c r="B14" s="22" t="s">
+        <v>758</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="42"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="2:15">
+      <c r="B15" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>770</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
       <c r="J15" s="39"/>
@@ -10315,7 +10321,7 @@
       <c r="E16" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -10328,21 +10334,19 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="21"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="36" t="s">
+      <c r="C17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>776</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>777</v>
-      </c>
+      <c r="F17" s="30"/>
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -10355,17 +10359,21 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="21"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="34" t="s">
+        <v>777</v>
+      </c>
       <c r="C18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="E18" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="36"/>
+        <v>471</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>778</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>779</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -10378,21 +10386,17 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="21"/>
-      <c r="B19" s="34" t="s">
-        <v>778</v>
-      </c>
+      <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>780</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="36"/>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -10403,100 +10407,100 @@
       <c r="N19" s="25"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" customFormat="1" ht="22" customHeight="1" spans="2:7">
-      <c r="B20" s="22" t="s">
+    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="F20" s="36" t="s">
+        <v>782</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+    </row>
+    <row r="21" customFormat="1" ht="22" customHeight="1" spans="2:7">
+      <c r="B21" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>706</v>
       </c>
-      <c r="E20" s="59" t="s">
-        <v>782</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>783</v>
-      </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="E21" s="59" t="s">
         <v>784</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="F21" s="60" t="s">
+        <v>785</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D22" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="15.5" spans="2:15">
-      <c r="B22" s="22" t="s">
+      <c r="E22" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="F22" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B23" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D23" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>753</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="F22" s="58" t="s">
-        <v>753</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="H23" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="F23" s="58">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="39"/>
       <c r="K23" s="24"/>
@@ -10505,37 +10509,37 @@
       <c r="N23" s="25"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A24" s="40"/>
+    <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="21"/>
       <c r="B24" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E24" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>794</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="42"/>
+      <c r="F24" s="58">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A25" s="40"/>
       <c r="B25" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>30</v>
@@ -10544,10 +10548,10 @@
         <v>706</v>
       </c>
       <c r="E25" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>796</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>797</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -10559,21 +10563,23 @@
       <c r="N25" s="54"/>
       <c r="O25" s="42"/>
     </row>
-    <row r="26" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="26" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A26" s="40"/>
       <c r="B26" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>253</v>
+        <v>706</v>
       </c>
       <c r="E26" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>799</v>
       </c>
-      <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -10584,9 +10590,9 @@
       <c r="N26" s="54"/>
       <c r="O26" s="42"/>
     </row>
-    <row r="27" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="27" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A27" s="40"/>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="22" t="s">
         <v>800</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -10609,30 +10615,30 @@
       <c r="N27" s="54"/>
       <c r="O27" s="42"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22" t="s">
+    <row r="28" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>803</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="24"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="42"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="21"/>
@@ -10684,8 +10690,8 @@
       <c r="N30" s="25"/>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="40"/>
+    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="21"/>
       <c r="B31" s="22" t="s">
         <v>808</v>
       </c>
@@ -10693,39 +10699,39 @@
         <v>30</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="E31" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>809</v>
       </c>
-      <c r="F31" s="60">
-        <v>5000</v>
-      </c>
+      <c r="F31" s="30"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="42"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="40"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>363</v>
+      <c r="D32" s="30" t="s">
+        <v>576</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>811</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="60">
+        <v>5000</v>
+      </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -10736,7 +10742,7 @@
       <c r="N32" s="54"/>
       <c r="O32" s="42"/>
     </row>
-    <row r="33" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="40"/>
       <c r="B33" s="27" t="s">
         <v>812</v>
@@ -10745,12 +10751,12 @@
         <v>30</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>813</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -10761,13 +10767,21 @@
       <c r="N33" s="54"/>
       <c r="O33" s="42"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
+    <row r="34" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="40"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="B34" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="F34" s="58"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -11865,6 +11879,23 @@
       <c r="M98" s="55"/>
       <c r="N98" s="54"/>
       <c r="O98" s="42"/>
+    </row>
+    <row r="99" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="40"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="42"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -11885,70 +11916,70 @@
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="N15">
     <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
+  <conditionalFormatting sqref="N16">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
     <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
+  <conditionalFormatting sqref="N24">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
@@ -11973,7 +12004,7 @@
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N13">
+  <conditionalFormatting sqref="N8:N14">
     <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -11984,51 +12015,51 @@
       <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N18">
+  <conditionalFormatting sqref="N17:N19">
     <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N27">
+  <conditionalFormatting sqref="N25:N28">
     <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N30">
+  <conditionalFormatting sqref="N29:N31">
     <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N98">
+  <conditionalFormatting sqref="N35:N99">
     <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N31:N32">
+  <conditionalFormatting sqref="N1 N32:N33">
     <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -12040,10 +12071,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34:C98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35:C99">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34:D98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35:D99">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12057,8 +12088,8 @@
   <sheetPr/>
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -12194,10 +12225,10 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="21" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>30</v>
@@ -12220,7 +12251,7 @@
     <row r="6" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="21"/>
       <c r="B6" s="27" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>30</v>
@@ -12245,7 +12276,7 @@
     <row r="7" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>30</v>
@@ -12254,10 +12285,10 @@
         <v>576</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
@@ -12272,7 +12303,7 @@
     <row r="8" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>30</v>
@@ -12281,7 +12312,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="29"/>
@@ -12304,7 +12335,7 @@
         <v>714</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="29"/>
@@ -12320,7 +12351,7 @@
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="21"/>
       <c r="B10" s="34" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>30</v>
@@ -12329,7 +12360,7 @@
         <v>363</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="29"/>
@@ -12352,7 +12383,7 @@
         <v>714</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="29"/>
@@ -12368,7 +12399,7 @@
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="21"/>
       <c r="B12" s="34" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>30</v>
@@ -12377,7 +12408,7 @@
         <v>363</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="29"/>
@@ -12400,7 +12431,7 @@
         <v>536</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="38"/>
@@ -12415,10 +12446,10 @@
     </row>
     <row r="14" s="5" customFormat="1" ht="22" customHeight="1" spans="1:8">
       <c r="A14" s="21" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>5</v>
@@ -12427,22 +12458,22 @@
         <v>486</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>753</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="22" customHeight="1" spans="1:7">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>30</v>
@@ -12451,17 +12482,17 @@
         <v>530</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G15" s="37"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>30</v>
@@ -12470,7 +12501,7 @@
         <v>363</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -12486,7 +12517,7 @@
     <row r="17" s="5" customFormat="1" ht="22" customHeight="1" spans="1:8">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>5</v>
@@ -12495,22 +12526,22 @@
         <v>486</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A18" s="40"/>
       <c r="B18" s="22" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>30</v>
@@ -12519,7 +12550,7 @@
         <v>716</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -12534,10 +12565,10 @@
     </row>
     <row r="19" s="5" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A19" s="40" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>30</v>
@@ -12546,7 +12577,7 @@
         <v>363</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -12562,7 +12593,7 @@
     <row r="20" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="40"/>
       <c r="B20" s="27" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>30</v>
@@ -12571,13 +12602,13 @@
         <v>650</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -12598,10 +12629,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -12623,10 +12654,10 @@
         <v>471</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -12648,7 +12679,7 @@
         <v>536</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -12664,7 +12695,7 @@
     <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="21"/>
       <c r="B24" s="22" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>30</v>
@@ -12673,10 +12704,10 @@
         <v>706</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30"/>
@@ -12691,7 +12722,7 @@
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>30</v>
@@ -12700,10 +12731,10 @@
         <v>706</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30"/>
@@ -12725,7 +12756,7 @@
         <v>540</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="29"/>
@@ -12741,7 +12772,7 @@
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="21"/>
       <c r="B27" s="22" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>30</v>
@@ -12750,10 +12781,10 @@
         <v>706</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
@@ -12768,7 +12799,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="40"/>
       <c r="B28" s="22" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>30</v>
@@ -12777,10 +12808,10 @@
         <v>706</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -12795,7 +12826,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="40"/>
       <c r="B29" s="27" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>30</v>
@@ -12804,7 +12835,7 @@
         <v>363</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -12820,7 +12851,7 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="40"/>
       <c r="B30" s="27" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>30</v>
@@ -12829,7 +12860,7 @@
         <v>363</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -12868,7 +12899,7 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="40"/>
       <c r="B32" s="27" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>30</v>
@@ -12877,10 +12908,10 @@
         <v>319</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -12894,10 +12925,10 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A33" s="40" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>30</v>
@@ -12906,13 +12937,13 @@
         <v>650</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -12926,7 +12957,7 @@
     <row r="34" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A34" s="40"/>
       <c r="B34" s="27" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>5</v>
@@ -12935,10 +12966,10 @@
         <v>49</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
@@ -12953,7 +12984,7 @@
     <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A35" s="40"/>
       <c r="B35" s="27" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>30</v>
@@ -12962,13 +12993,13 @@
         <v>650</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -12982,7 +13013,7 @@
     <row r="36" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A36" s="40"/>
       <c r="B36" s="27" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>5</v>
@@ -12991,10 +13022,10 @@
         <v>49</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
@@ -13009,7 +13040,7 @@
     <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A37" s="40"/>
       <c r="B37" s="27" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>30</v>
@@ -13018,13 +13049,13 @@
         <v>650</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -13038,7 +13069,7 @@
     <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A38" s="40"/>
       <c r="B38" s="27" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>5</v>
@@ -13047,10 +13078,10 @@
         <v>49</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -13065,7 +13096,7 @@
     <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A39" s="40"/>
       <c r="B39" s="27" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>30</v>
@@ -13074,13 +13105,13 @@
         <v>650</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -13094,7 +13125,7 @@
     <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A40" s="40"/>
       <c r="B40" s="27" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>5</v>
@@ -13103,10 +13134,10 @@
         <v>49</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -13121,7 +13152,7 @@
     <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A41" s="40"/>
       <c r="B41" s="27" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>30</v>
@@ -13130,7 +13161,7 @@
         <v>363</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="29"/>
@@ -13146,7 +13177,7 @@
     <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A42" s="40"/>
       <c r="B42" s="27" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>30</v>
@@ -13155,10 +13186,10 @@
         <v>366</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
@@ -13172,10 +13203,10 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="40" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>30</v>
@@ -13184,7 +13215,7 @@
         <v>363</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
@@ -13200,7 +13231,7 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="40"/>
       <c r="B44" s="27" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>30</v>
@@ -13209,13 +13240,13 @@
         <v>650</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -13229,7 +13260,7 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="40"/>
       <c r="B45" s="27" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>5</v>
@@ -13238,10 +13269,10 @@
         <v>49</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
@@ -13256,7 +13287,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="40"/>
       <c r="B46" s="27" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>30</v>
@@ -13265,10 +13296,10 @@
         <v>706</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -13283,7 +13314,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="40"/>
       <c r="B47" s="27" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>30</v>
@@ -13292,7 +13323,7 @@
         <v>363</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
@@ -13308,7 +13339,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="40"/>
       <c r="B48" s="27" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>30</v>
@@ -13317,10 +13348,10 @@
         <v>706</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
@@ -13335,7 +13366,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="40"/>
       <c r="B49" s="27" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>30</v>
@@ -13344,10 +13375,10 @@
         <v>692</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
@@ -13362,7 +13393,7 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="40"/>
       <c r="B50" s="27" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>30</v>
@@ -13371,7 +13402,7 @@
         <v>363</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="29"/>
@@ -13387,7 +13418,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="40"/>
       <c r="B51" s="27" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>30</v>
@@ -13396,7 +13427,7 @@
         <v>363</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="29"/>
@@ -13412,7 +13443,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="40"/>
       <c r="B52" s="27" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>30</v>
@@ -13421,7 +13452,7 @@
         <v>253</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="29"/>
@@ -13437,7 +13468,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="40"/>
       <c r="B53" s="27" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>30</v>
@@ -13446,13 +13477,13 @@
         <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
@@ -13466,7 +13497,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="40"/>
       <c r="B54" s="27" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>5</v>
@@ -13475,10 +13506,10 @@
         <v>49</v>
       </c>
       <c r="E54" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="F54" s="30" t="s">
         <v>893</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>891</v>
       </c>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
@@ -13493,7 +13524,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="40"/>
       <c r="B55" s="27" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>30</v>
@@ -13502,13 +13533,13 @@
         <v>650</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -13522,7 +13553,7 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="40"/>
       <c r="B56" s="27" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>5</v>
@@ -13531,10 +13562,10 @@
         <v>49</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -13549,7 +13580,7 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="40"/>
       <c r="B57" s="27" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>30</v>
@@ -13558,13 +13589,13 @@
         <v>650</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
@@ -13578,7 +13609,7 @@
     <row r="58" s="1" customFormat="1" spans="1:15">
       <c r="A58" s="40"/>
       <c r="B58" s="27" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>5</v>
@@ -13587,10 +13618,10 @@
         <v>49</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
@@ -13605,7 +13636,7 @@
     <row r="59" s="1" customFormat="1" spans="1:15">
       <c r="A59" s="40"/>
       <c r="B59" s="27" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>30</v>
@@ -13614,7 +13645,7 @@
         <v>363</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29"/>
@@ -13630,7 +13661,7 @@
     <row r="60" s="1" customFormat="1" spans="1:15">
       <c r="A60" s="40"/>
       <c r="B60" s="27" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>30</v>
@@ -13639,10 +13670,10 @@
         <v>366</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -13656,10 +13687,10 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="40" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>30</v>
@@ -13668,7 +13699,7 @@
         <v>363</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
@@ -13684,7 +13715,7 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="40"/>
       <c r="B62" s="27" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>30</v>
@@ -13693,10 +13724,10 @@
         <v>706</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -13711,7 +13742,7 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="40"/>
       <c r="B63" s="27" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>30</v>
@@ -13720,7 +13751,7 @@
         <v>363</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
@@ -13736,7 +13767,7 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="40"/>
       <c r="B64" s="27" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>30</v>
@@ -13745,7 +13776,7 @@
         <v>253</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
@@ -13761,7 +13792,7 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="40"/>
       <c r="B65" s="27" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>30</v>
@@ -13770,7 +13801,7 @@
         <v>363</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
@@ -13786,7 +13817,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="40"/>
       <c r="B66" s="27" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>30</v>
@@ -13795,13 +13826,13 @@
         <v>650</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
@@ -13815,7 +13846,7 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="40"/>
       <c r="B67" s="27" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>5</v>
@@ -13824,7 +13855,7 @@
         <v>308</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
@@ -13840,7 +13871,7 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="40"/>
       <c r="B68" s="27" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>30</v>
@@ -13849,10 +13880,10 @@
         <v>692</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
@@ -13867,7 +13898,7 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="40"/>
       <c r="B69" s="27" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>30</v>
@@ -13876,10 +13907,10 @@
         <v>692</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -13894,7 +13925,7 @@
     <row r="70" s="1" customFormat="1" spans="1:15">
       <c r="A70" s="40"/>
       <c r="B70" s="27" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>30</v>
@@ -13903,10 +13934,10 @@
         <v>706</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
@@ -13921,7 +13952,7 @@
     <row r="71" s="1" customFormat="1" spans="1:15">
       <c r="A71" s="40"/>
       <c r="B71" s="27" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C71" s="28" t="s">
         <v>30</v>
@@ -13930,7 +13961,7 @@
         <v>363</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="29"/>
@@ -13946,7 +13977,7 @@
     <row r="72" s="1" customFormat="1" spans="1:15">
       <c r="A72" s="40"/>
       <c r="B72" s="27" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>30</v>
@@ -13955,7 +13986,7 @@
         <v>363</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="29"/>
@@ -13971,7 +14002,7 @@
     <row r="73" s="1" customFormat="1" spans="1:15">
       <c r="A73" s="40"/>
       <c r="B73" s="27" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C73" s="28" t="s">
         <v>30</v>
@@ -13980,7 +14011,7 @@
         <v>253</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="29"/>
@@ -13996,7 +14027,7 @@
     <row r="74" s="1" customFormat="1" spans="1:15">
       <c r="A74" s="40"/>
       <c r="B74" s="27" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>30</v>
@@ -14005,13 +14036,13 @@
         <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
@@ -14025,7 +14056,7 @@
     <row r="75" s="1" customFormat="1" spans="1:15">
       <c r="A75" s="40"/>
       <c r="B75" s="27" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C75" s="31" t="s">
         <v>5</v>
@@ -14034,10 +14065,10 @@
         <v>49</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
@@ -14052,7 +14083,7 @@
     <row r="76" s="1" customFormat="1" spans="1:15">
       <c r="A76" s="40"/>
       <c r="B76" s="27" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>30</v>
@@ -14061,7 +14092,7 @@
         <v>363</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="29"/>
@@ -14076,10 +14107,10 @@
     </row>
     <row r="77" s="1" customFormat="1" spans="1:15">
       <c r="A77" s="40" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>30</v>
@@ -14088,10 +14119,10 @@
         <v>366</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
@@ -14105,7 +14136,7 @@
     </row>
     <row r="78" s="1" customFormat="1" spans="2:15">
       <c r="B78" s="27" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>30</v>
@@ -14114,7 +14145,7 @@
         <v>363</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
@@ -14130,7 +14161,7 @@
     <row r="79" s="1" customFormat="1" spans="1:15">
       <c r="A79" s="40"/>
       <c r="B79" s="27" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>30</v>
@@ -14139,10 +14170,10 @@
         <v>706</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -14157,7 +14188,7 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="40"/>
       <c r="B80" s="27" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C80" s="28" t="s">
         <v>30</v>
@@ -14166,10 +14197,10 @@
         <v>706</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -14184,7 +14215,7 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="40"/>
       <c r="B81" s="27" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>30</v>
@@ -14193,10 +14224,10 @@
         <v>706</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
@@ -14211,7 +14242,7 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="40"/>
       <c r="B82" s="27" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>30</v>
@@ -14220,10 +14251,10 @@
         <v>706</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -14238,7 +14269,7 @@
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="40"/>
       <c r="B83" s="27" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>30</v>
@@ -14247,7 +14278,7 @@
         <v>363</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F83" s="30"/>
       <c r="G83" s="29"/>
@@ -14263,7 +14294,7 @@
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="40"/>
       <c r="B84" s="27" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C84" s="28" t="s">
         <v>30</v>
@@ -14272,7 +14303,7 @@
         <v>363</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F84" s="30"/>
       <c r="G84" s="29"/>
@@ -14288,7 +14319,7 @@
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="40"/>
       <c r="B85" s="27" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C85" s="28" t="s">
         <v>30</v>
@@ -14297,7 +14328,7 @@
         <v>253</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F85" s="30"/>
       <c r="G85" s="29"/>
@@ -14313,7 +14344,7 @@
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="40"/>
       <c r="B86" s="27" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C86" s="28" t="s">
         <v>30</v>
@@ -14322,13 +14353,13 @@
         <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
@@ -14342,7 +14373,7 @@
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="40"/>
       <c r="B87" s="27" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>5</v>
@@ -14351,10 +14382,10 @@
         <v>49</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
